--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1530.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1530.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.765717059000781</v>
+        <v>1.842016458511353</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>4.911418914794922</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.730206727981567</v>
       </c>
       <c r="D1">
-        <v>1.073007580998469</v>
+        <v>1.243616342544556</v>
       </c>
       <c r="E1">
-        <v>0.6749360149292795</v>
+        <v>0.8185868263244629</v>
       </c>
     </row>
   </sheetData>
